--- a/data/trans_bre/P74B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Habitat-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>69.04809885382984</v>
+        <v>68.91932102944639</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>35.82511125916836</v>
+        <v>35.46733056684091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47.52607683756457</v>
+        <v>46.90430452036253</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>5.861290824271258</v>
+        <v>5.91366534051782</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.850179525343863</v>
+        <v>1.842854168062955</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>3.15139562163445</v>
+        <v>3.194943557360936</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>81.9547259486981</v>
+        <v>82.04910827907847</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>52.86488686264139</v>
+        <v>52.75556773491699</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61.94971024166905</v>
+        <v>62.5898874777338</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13.39785827415197</v>
+        <v>13.06404276180025</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.181766963913788</v>
+        <v>4.355651798998869</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7.285722621295048</v>
+        <v>7.066440147665196</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>70.9986106293989</v>
+        <v>71.10550553262087</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>46.05788464410799</v>
+        <v>46.05541148905952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44.09488203842704</v>
+        <v>43.52610915875874</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>6.543970457354964</v>
+        <v>6.363038092702605</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>3.007779209763084</v>
+        <v>2.943119119150575</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.706246481427524</v>
+        <v>2.687749239092281</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>83.35652294825826</v>
+        <v>83.61525920414064</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>59.5411851747707</v>
+        <v>59.61912734870818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>57.16050256352271</v>
+        <v>57.61881417271834</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>14.48024111473634</v>
+        <v>13.62780412419633</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.246983456000724</v>
+        <v>6.158187701242095</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.469058337583609</v>
+        <v>5.464886915884054</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>66.1477200219357</v>
+        <v>66.84465392839839</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>49.09298684039338</v>
+        <v>50.38849450439653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>47.66360221513377</v>
+        <v>46.71486993466741</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8.928336130621895</v>
+        <v>8.82138642416167</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>3.512640020229251</v>
+        <v>3.474031675859432</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>4.315707812684961</v>
+        <v>4.178900021592197</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>81.11523042864442</v>
+        <v>81.75720647992515</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>65.64860799079591</v>
+        <v>65.42887967886087</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>61.82577229526096</v>
+        <v>62.52194539088863</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>27.68002842303547</v>
+        <v>27.31141373557481</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>8.623913620790379</v>
+        <v>8.712390026324723</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>10.40731986819683</v>
+        <v>10.92013491130107</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>65.09057602702568</v>
+        <v>64.64348800347285</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>58.4704069028197</v>
+        <v>58.27508088302164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46.33673635369533</v>
+        <v>47.64346749457321</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6.11552079013038</v>
+        <v>5.952664157888505</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3.790327244129006</v>
+        <v>3.966041777961212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.417928251039705</v>
+        <v>2.474360804135781</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>78.84580005250935</v>
+        <v>78.92942964865986</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>71.29060325800705</v>
+        <v>71.68727283995516</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>61.67588372005013</v>
+        <v>61.8776646002867</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14.01344754523115</v>
+        <v>14.25105480182709</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8.148548550500053</v>
+        <v>8.775072257214397</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.718629103638832</v>
+        <v>4.63531040193549</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>71.87719752796218</v>
+        <v>71.90171117820933</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>51.77572215808586</v>
+        <v>51.54251588514686</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49.49478065432679</v>
+        <v>50.06605157068735</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>8.161821327167939</v>
+        <v>8.299817579688387</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>3.649955968644591</v>
+        <v>3.627890238838849</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>3.556835991481049</v>
+        <v>3.582514551833675</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>78.72503023335814</v>
+        <v>78.53035722692705</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>59.43944765393616</v>
+        <v>59.18611269178641</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>57.19261064188205</v>
+        <v>57.3104928777646</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12.38752747464918</v>
+        <v>12.46162927480072</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5.336960878438317</v>
+        <v>5.419958858649117</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.1781832443528</v>
+        <v>5.204518912469164</v>
       </c>
     </row>
     <row r="19">
